--- a/mod_opinions/mod_opinions_average_sheet.xlsx
+++ b/mod_opinions/mod_opinions_average_sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Moderator</t>
   </si>
@@ -49,7 +49,13 @@
     <t xml:space="preserve">@Anon0027</t>
   </si>
   <si>
-    <t xml:space="preserve">@Anon244</t>
+    <t xml:space="preserve">@Anon0244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Anon0054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@SoulMechanic</t>
   </si>
   <si>
     <t xml:space="preserve">AVERAGE</t>
@@ -247,10 +253,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -331,15 +337,31 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2" t="n">
-        <f aca="false">AVERAGE(B3:B12)</f>
-        <v>-6.5625</v>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>-5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="3" t="s">
-        <v>10</v>
+      <c r="B14" s="2" t="n">
+        <f aca="false">AVERAGE(B3:B13)</f>
+        <v>-6.75</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/mod_opinions/mod_opinions_average_sheet.xlsx
+++ b/mod_opinions/mod_opinions_average_sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Moderator</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">@SoulMechanic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@jessquit</t>
   </si>
   <si>
     <t xml:space="preserve">AVERAGE</t>
@@ -253,10 +256,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -353,15 +356,23 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2" t="n">
-        <f aca="false">AVERAGE(B3:B13)</f>
-        <v>-6.75</v>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>-9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="2" t="n">
+        <f aca="false">AVERAGE(B3:B14)</f>
+        <v>-6.95454545454545</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
